--- a/DMS phase 1a/1a staging table/CP_POL_CLIENT_EMAIL.xlsx
+++ b/DMS phase 1a/1a staging table/CP_POL_CLIENT_EMAIL.xlsx
@@ -182,7 +182,7 @@
     <t>Email address of policy holder which is stored in party</t>
   </si>
   <si>
-    <t>What is the definition for this field, is there any sample? How to display if it's a new business policy or quotation?</t>
+    <t>Default to be display as '1'</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,12 +254,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -334,14 +328,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -652,7 +645,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +704,7 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -728,21 +721,21 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>55</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -777,7 +770,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -819,7 +812,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -863,7 +856,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -883,7 +876,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -904,39 +897,39 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
